--- a/output/Total_time_range_data/云南省/曲靖市_学习考察.xlsx
+++ b/output/Total_time_range_data/云南省/曲靖市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1598 +436,1750 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>252</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>云南省党政代表团赴湖北考察学习共同服务和融入长江经济带高质量发展王宁王予波率队与王蒙徽王忠林交流石玉钢诸葛宇杰参加</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-05-27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2024/tt_0527/266076.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['云南省党政代表团赴湖北考察学习 共同服务和融入长江经济带高质量发展 王宁王予波率队 与王蒙徽王忠林交流 石玉钢诸葛宇杰参加 - 头条 - 曲靖市人民政府门户网', '云南省党政代表团赴湖北考察学习 共同服务和融入长江经济带高质量发展 王宁王予波率队 与王蒙徽王忠林交流 石玉钢诸葛宇杰参加', '5月23日至24日，云南省党政代表团赴湖北省考察学习，共同贯彻落实习近平总书记关于推动长江经济带发展的重要讲话和重要指示批示精神，学习湖北改革开放发展先进经验，加强双方交流合作，更好服务和融入长江经济带高质量发展。', '湖北省深入贯彻习近平总书记关于湖北工作的重要讲话和重要指示批示精神，认真落实党中央推动中部地区崛起系列决策部署，加快建设成为中部地区崛起重要战略支点，荆楚大地处处迸发着澎湃创新创造活力。我省党政代表团认真考察学习湖北在发展新质生产力、科教兴省、先进制造、高新技术产业、园区经济等方面的先进经验和做法，推动滇鄂深化合作、共赢发展。', '武汉大学测绘遥感信息工程国家重点实验室，具有国际领先水平。代表团来到这里，认真听取高分辨率对地观测、北斗导航等重大工程技术研发和成果转化介绍，交流测绘遥感技术在重大工程建设、灾害防治预警、生态环境监测等领域的应用合作。在武汉经开区，代表团详细了解园区建设和打造“中国车谷”情况，学习主导产业集群发展、产学研深度融合等园区经济发展的思路举措；到岚图汽车公司实地考察智能网联汽车、无人驾驶技术等，对接湖北汽车行业与云南新能源电池产业深度合作。武汉“光谷”是国家级光电子信息产业基地，汇聚大批科研院所、专业技术人员和高新科技企业。代表团走进长飞光纤、中国信科、华工激光等企业，参观各企业在光纤光缆、信息通信、激光工程等领域的最新研发成果和产品，学习企业锚定高水平科技自立自强、加强自主创新的探索精神和实践经验，探讨各企业专精领域与云南合作的结合点，欢迎大家赴滇拓展业务、投资项目。代表团成员通过考察学习，启发了思路，学习了抓产业、抓项目、抓园区经济的方法路径，表示要学习湖北同志开拓进取、务实干事、只争朝夕的精神，持续深化作风革命效能革命，进一步激发强化创新引领、发展特色优势产业、培育壮大“三大经济”的信心和干劲。', '滇鄂两省共饮一江水，各领域交往合作紧密。两地同志一致表示，要共同贯彻落实好习近平总书记重要指示精神，立足国家发展大局，强化区域协同融通，聚焦服务长江经济带发展战略、共建“一带一路”等，加强交流沟通和工作对接，积极推进资源开发、产业发展、科技创新、人才培养、文化旅游、生态环保等多领域务实合作，优势互补、互相借力，共同在中国式现代化省域实践中迈出新步伐、谱写新篇章。', '云南省领导刘洪建、邱江、刘非、杨斌、王浩，湖北省和武汉市领导郭元强、吴海涛、蔚盛斌、彭勇、程用文参加相关活动。云南省各州（市）党委或政府主要负责同志、省直有关部门负责同志参加考察学习。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>252</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>曲靖市城市综合管理局赴昆明市学习考察园林绿化工作</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-06-14</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2024/bmdt2_0614/266372.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['曲靖市城市综合管理局赴昆明市学习考察园林绿化工作 - 部门动态 - 曲靖市人民政府门户网', '5月11日，市城市综合管理局组织市园林绿化局一行11人赴昆明市学习考察园林绿化工作。', '上午，考察组首先与昆明市五华区综合行政执法局召开座谈会，围绕绿化建设工程规划设计、工程审查、质量监督、验收管理等重点问题，双方深入交流与探讨，分享各自经验，座谈会互动友好而热烈。', '会后，考察组实地参观昆明市五华区新能源主题公园建设项目，深入了解引入企业代建代管城市绿地建设的新思路新模式。', '下午，考察组现场调研昆明市官渡区万科魅力之城社牛牧场儿童宠物公园建设、管理、运营模式，深入了解昆明市推进“百园建设”中“公园设计与业态布局同步考虑、公园建设与场景营造同步推进、公园管理与商业运营同步落实”的“三同步”建设运营模式。并在昆明市园林绿化局召开座谈会，就昆明市园林绿化规章制度建设，园林绿化规划、设计、建设及日常养护管理，考核体系建设等方面的先进经验和做法，特别是在创新工作机制、提高绿化品质、加强城市生态环境建设等方面的举措、成效进行了深入交流和探讨。', '此次学习考察活动，曲靖市园林绿化局通过对标省内先进标杆，不断拓宽思路视野，找准赶超方向，明确工作重点，以“干在实处、走在前列、勇立潮头”的精气神，不断激发全局干部职工干事创业的新动力，持续推动曲靖市园林绿化规划建设管理工作创新发展，为打造更加美丽宜居的绿美曲靖贡献园林力量。（杨洋）', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>252</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>杨斌率队赴上海高校学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-05-13</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2024/bmdt2_0513/265910.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['4月28日至29日，省委常委、市委书记杨斌率队赴上海高校学习考察，与同济大学党委书记方守恩，复旦大学校长、中国科学院院士金力，上海交通大学校长、中国科学院院士丁奎岭，中国科学院上海分院院长胡金波就深化校地合作深入交流，共商共谋发展，与上海交通大学签订框架合作协议，同济大学授予曲靖二中、宣威一中、宣威六中“优质生源基地”，上海交通大学授予曲靖一中“优质生源基地”。', '杨斌代表市委、市人大常委会、市政府、市政协对同济大学、复旦大学、上海交通大学、中国科学院上海分院长期以来给予曲靖经济社会发展的帮助与支持表示感谢。他说，同济大学、复旦大学、上海交通大学有着百年历史的丰厚底蕴，久负盛名，享誉海内外，科研实力雄厚，创新成果丰硕；中国科学院上海分院人才智力荟萃，是国家创新人才高地、国家高水平科技智库、国际一流科研机构。此次到访的主要目的是学习取经、招才引智、深化合作。曲靖作为云南第二大城市、第二大经济体，正按照省委、省政府要求，努力建设省域副中心城市，打造区域先进制造业中心、区域科技创新中心、区域医疗康养中心、全省教育次中心，迫切需要各高校的强大教学科研实力、一流专家团队的支持支撑。希望各高校一如既往关心支持曲靖发展，深化在科技创新、现代化产业体系构建、教育事业发展、人才培养、干部培训、医疗卫生等领域务实合作，共同打造优质生源基地，探索共建科研平台，深化产学研用融合，努力走好协同创新之路，推进创新链、产业链、人才链、资金链深度融合发展，在助力曲靖加快发展新质生产力、推动高质量跨越式发展上发挥关键性、引领性、帮扶性作用。热忱欢迎各位专家、学子到曲靖创新创业、实习实践，让高校智慧、高校力量、高校方案在曲靖得到生动实践、结出丰硕成果，共同谱写校地合作、共赢发展新篇章。', '方守恩、金力、丁奎岭、胡金波对曲靖党政代表团的到访表示欢迎。他们指出，长期以来，各高校与曲靖市开展多形式的校地合作，在人才培养、产业发展、脱贫攻坚、医疗帮扶、干部培训等方面具有良好合作基础。希望双方在此次交流基础上，坚持“曲靖所需、学校所长”，聚焦科技成果转化、人才培养、基础教育、医疗卫生等方面开展务实深度合作，把“施工图”变为“实景图”，携手推动双方高质量发展再上新台阶。', '省政府副秘书长、省工信厅副厅长施友连，省商务厅副厅长谭伟，曲靖市马国庆、朱党柱、解天云、杨庆东、于韬、唐开荣、吴静等参加。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>252</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>杨斌率队赴安徽合肥湖北荆州招商招智和考察学习与安徽省委常委合肥市委书记张红文和湖北省荆州市委书记吴锦交流座谈</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-05-31</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2024/qthy_0531/266133.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['杨斌率队赴安徽合肥、湖北荆州招商招智和考察学习 与安徽省委常委、合肥市委书记张红文和湖北省荆州市委书记吴锦交流座谈 - 其它会议 - 曲靖市人民政府门户网', '杨斌率队赴安徽合肥、湖北荆州招商招智和考察学习 与安徽省委常委、合肥市委书记张红文和湖北省荆州市委书记吴锦交流座谈', '曲靖融媒讯（记者 唐开虎/文 严帅/图）5月26日至28日，省委常委、市委书记杨斌率队赴安徽合肥、湖北荆州招商招智和考察学习，与安徽省委常委、合肥市委书记张红文和湖北省荆州市委书记吴锦交流座谈，学习借鉴两地先进经验，取真经、谈合作、谋发展。', '杨斌一行在安徽省合肥市考察了京东方科技集团股份有限公司、安徽通航控股集团、阳光电源股份有限公司、科大国盾量子技术股份有限公司、中科大先进技术研究院、中科星图数字地球合肥有限公司、蔚来先进制造基地、安徽创新馆、巨一科技股份有限公司、彩虹（合肥）液晶玻璃有限公司、合肥晶合集成电路股份有限公司、安徽巡鹰新能源集团有限公司，在湖北省荆州市考察了菲利华石英玻璃股份有限公司，参观了企业产品展厅、生产车间、研发实验室，详细了解科技创新、发展布局、生产工艺、企业文化等情况。大家纷纷表示，合肥市、荆州市以科技创新为引领，推进传统产业升级、新兴产业壮大、未来产业培育，经济社会发展取得了引人瞩目的成就，将以此次学习考察为契机，认真学习两地坚持“吃改革饭、走开放路、打创新牌”的办法措施，认真学习合肥超前独到的战略眼光、敢闯敢试的创新精神、干在实处的过硬作风，认真学习荆州“筚路蓝缕、拼搏奉献、改革创新、开放包容”的精神，切实把学习成果转化为推动曲靖高质量发展的务实举措。', '杨斌强调，要坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平总书记考察云南重要讲话和重要指示批示精神，完整准确全面贯彻新发展理念，更好服务和融入新发展格局，坚持高质量发展这个新时代的硬道理，奋力谱写中国式现代化曲靖篇章。要深入学习贯彻习近平总书记关于科技创新的重要论述，坚持科技是第一生产力、人才是第一资源、创新是第一动力，大力推进科技创新，以科技创新引领产业创新，着力推进发展方式创新，扎实推进体制机制创新，深化人才工作机制创新，建立科技、创新、产业、人才、金融的高水平良性循环机制，推进创新链产业链资金链人才链深度融合，深化政产学研用融合发展，走好协同创新之路，持续提升科技创新“高度”“浓度”“速度”，加快培育新质生产力。要坚决贯彻党中央关于招商引资的决策部署，坚决避免招商“内卷”，积极融入全国统一大市场建设。要打好对外开放主动牌，做好“立足曲靖发展曲靖、跳出曲靖发展曲靖”大文章，更好利用国内国际两个市场、两种资源，以高水平开放推动高质量发展。', '杨斌要求，各级领导干部要牢记习近平总书记谆谆教诲，既要政治过硬，也要本领高强；既当好领导，又成为专家，带头当好“五个示范标杆”，提升专业化、专门化、精细化水平，增强产业感知力，以干在实处、走在前列、勇立潮头的精气神，推动高质量跨越式发展不断取得新成效。', '合肥市陈晓波、杨志斌、程雪涛，云南省政府副秘书长、省工信厅副厅长施友连，曲靖市马国庆、吴静等参加有关活动。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>252</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>云南省党政代表团赴上海考察学习学习改革创新经验深化协作共谋发展陈吉宁王宁王予波黄莉新胡文容石玉钢参加有关活动</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-05-24</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2024/tt_0524/266059.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['云南省党政代表团赴上海考察学习 学习改革创新经验 深化协作共谋发展 陈吉宁王宁王予波黄莉新胡文容石玉钢参加有关活动 - 头条 - 曲靖市人民政府门户网', '云南省党政代表团赴上海考察学习 学习改革创新经验 深化协作共谋发展 陈吉宁王宁王予波黄莉新胡文容石玉钢参加有关活动', '5月21日至22日，云南省党政代表团赴上海市考察学习，共同贯彻落实习近平总书记在新时代推动西部大开发座谈会上的重要讲话精神和关于深化东西部协作的重要指示精神，学习上海改革发展先进经验，对接沪滇协作工作，携手推动两地现代化建设不断取得新成效。', '上海市委书记陈吉宁，云南省委书记王宁，省委副书记、省长王予波；上海市人大常委会主任黄莉新、市政协主席胡文容，云南省委副书记石玉钢参加有关活动。', '上海市深入贯彻落实习近平总书记考察上海重要讲话精神，聚焦“五个中心”建设，统筹牵引经济社会发展不断取得新成就，充分彰显了我国改革开放前沿阵地和深度链接全球国际大都市的重要地位和作用。我省党政代表团围绕发展新质生产力、科技创新、数字经济、智能制造、城市规划建设、乡村全面振兴等，认真考察学习上海先进经验和做法。', '代表团走进上海科技创新成果展，参观基础研究、人工智能、生物医药等领域科技创新成果，学习创新驱动发展新质生产力的思路举措；来到全国首个大模型专业孵化和加速载体上海模速空间创新生态社区，了解上海汇聚尖端科技构建产业生态、打造世界级人工智能产业集群的做法；在美团、携程等消费服务平台企业，观看大数据应用场景，交流拓展在滇业务，探讨推动上海与云南合作打造国际化深度旅游目的地。考察途中，代表团深刻感受到上海城市风貌提升和治理成效，并到上海城市规划展示馆，了解城市规划建设历程，学习上海建设“人民城市”的理念做法。代表团还到上海电气集团和上海振华重工集团，考察企业科技研发、大国重器制造情况，就新能源开发、储能、装备制造等对接合作。超大城市如何推进农业农村现代化，代表团前往崇明区合兴村、由由中荷农业创新园“取经”，与当地基层干部交流农民增收致富办法，走进种植大棚考察高科技设施农业，希望加强种质资源等合作，推进农业高质高效和乡村全面振兴。考察学习中，代表团成员们再次感受到上海勇当全国改革开放排头兵、创新发展先行者的决心魄力和卓著成绩，表示要将学习收获切实转化为具体思路举措，推动本地区本部门工作取得新的进步。', '沪滇协作28年，彼此情谊深厚，合作历久弥新。两地同志在交流中表示，要共同贯彻落实好习近平总书记重要指示精神，聚焦更好服务国家发展战略，进一步推动上海技术、管理、资金、人才与云南区位、资源、劳动力等优势融合互补，在产业转移、对外开放、绿色制造、文旅发展等领域取得更多合作成果，在拓展教育、医疗帮扶和劳务协作等民生事业上惠及更多群众，共同谱写新征程上沪滇协作新篇章。', '王宁在考察中要求，我省各州（市）各有关部门要认真总结运用学习成果，结合各自实际，主动求变谋变，积极加强与上海工作对接，把沪滇协作抓实在抓具体，取得更多成果成效。要对标先进、借鉴经验，拓宽视野、更新观念，树立更高目标，在中国式现代化云南实践中努力开拓奋进。', '22日晚，王予波在沪主持召开云南省与长三角地区知名企业座谈会，与有关企业负责人进行深入交流，介绍云南产业发展优势、优化营商环境等情况，欢迎广大企业来滇投资发展。', '上海市领导李仰哲、朱芝松、张为、李政、张小宏、陈宇剑，云南省领导刘洪建、邱江、刘非、杨斌、王浩参加相关活动。云南省各州（市）党委或政府主要负责同志、省直有关部门负责同志参加考察学习。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>252</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>曲靖市工信局带队赴云南安宁产业园区草铺化工园区考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2024/bmdt2_0426/265713.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['曲靖市工信局带队赴云南安宁产业园区草铺化工园区考察学习 - 部门动态 - 曲靖市人民政府门户网', '云南安宁产业园区草铺化工园区在全省率先通过化工园区认定和复核，是全省产业规模最大的化工园区，工业基础雄厚、产业集群度高、发展动能强劲、管理经验成熟。为学习借鉴安宁产业园区在化工园区建设及管理方面的先进经验，加快推动全市四个化工园区查缺补漏、达标建设，2024年4月24日，曲靖市工业和信息化局组织麒麟越州、沾益花山、宣威羊场、会泽者海四个化工园区及曲靖职业技术学院相关负责人赴云南安宁产业园区草铺化工园区考察学习，实地取经挖宝、拓展思路。', '考察组听取了草铺化工园区总体规划、产业规划、四至边界及园区总体发展情况介绍，现场考察了事故废水应急池等基础设施及化工实训基地等配套设施，学习观摩了智慧化工园区平台及安全风险智能化管控平台的操作运行，对平台安全基础管理、重大危险源在线监测、双重预防机制、封闭化管理等重要板块进行了深入学习。', '实地考察结束后，考察组与安宁产业园区管委会及园区安环局、自规局、建设局、投资开发有限公司召开了座谈会。双方就园区规划编制、三级防控体系建设、安全风险监控体系建设及数据接入、消防站建设标准及人员配备、智慧化工园区平台运维、化工园区认定流程等问题进行了沟通交流。此次考察学习，为曲靖市四个化工园区和化工实训基地进一步查缺补漏、做好申请认定准备提供了可借鉴、可参考的有益经验和有效路径。', '曲靖市工业和信息化局副局长付金龙、云南麒麟产业园区党工委副书记陈正坤、曲靖高新技术产业开发区管委会副主任董彪、云南宣威经济技术开发区管委会副主任浦恩宏、云南会泽产业园区管委会化工园区建设指挥部副指挥长李斌、曲靖职业技术学院副院长海宇修，以及各部门相关科室负责人参加考察学习。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>252</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>曲靖市赴广西百色市学习考察民族团结进步创建工作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2023/bmdt2_0825/110545.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['曲靖市赴广西百色市学习考察民族团结进步创建工作 - 部门动态 - 曲靖市人民政府门户网', '为深入持久开展民族团结进步创建，充分发挥创建联盟在推动“三项计划”深入实施中的纽带作用，实现资源互享、机制互联、保障互助、干部互学、信息互通、经验互鉴的工作目标，8月23日至25日，曲靖市民族宗教系统赴广西壮族自治区百色市学习考察民族团结进步创建工作', '考察组在百色市西林县那劳镇、田林县潞城瑶族乡营盘村、田阳区、平果市等地通过实地调研、座谈交流、档案查阅等方式，学习考察百色市在以分众化宣传教育构筑各族群众共有精神家园、提高群众对创建工作的知晓率、参与率、满意度，实现创建工作与业务工作双融合双促进等方面的先进经验和做法，为如何有形有感有效铸牢中华民族共同体意识，推动全域创建进一步走深走实，巩固提升当前创建工作提供了新思路新方法。', '通过交流学习，考察组在看到自身差距的同时，也进一步增强了做好当前创建工作的紧迫感和责任感，加大了赶超跨越的信心和动力。下一步，曲靖市将认真总结百色市在创建工作中的成功经验，坚持以铸牢中华民族共同体意识为主线，结合曲靖实际，切实把学习收获转化为推进曲靖创建工作的思路办法和具体行动，广泛开展创建联盟活动，深入实施“三项计划”，进一步凸显主题，彰显特色，强化抓手，有形有感有效打造民族团结进步创建工作升级版，打响创建全国民族团结进步示范市攻坚战。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>252</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>杨斌率队赴上海开展招商引资和学习考察</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-05-05</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2024/qthy_0505/265823.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['曲靖融媒讯（记者 唐开虎/文 严帅/图）4月28日至30日，省委常委、市委书记杨斌率队赴上海市开展招商引资和学习考察，从科技展馆到企业园区，从科技创新到产业发展，杨斌一行一路学习取经，一路招商引资，学习借鉴上海的好经验好做法，精准对接重点企业，高效洽谈合作事宜，为曲靖高质量发展蓄势赋能。', '杨斌一行先后考察了中国（上海）自由贸易试验区临港新片区，以及上海氢晨新能源科技有限公司、上海傅利叶智能科技有限公司等企业，并与18家创新型企业举行招商对接座谈会，进行“点对点”精准对接、“面对面”务实洽谈，宣传推介曲靖，达成广泛共识，取得积极成效。杨斌表示，近年来，曲靖市深入学习贯彻习近平总书记考察云南重要讲话和重要指示精神，按照“一个跨越”“三个定位”要求，完整准确全面贯彻新发展理念，更好服务和融入新发展格局，推动经济社会高质量发展迈上新台阶。曲靖正日益成为创新创业的沃土、投资兴业的热土，诚邀各位企业家到曲靖考察洽谈、交流对接、共谋发展，加快把合作共识转化为实实在在的合作成效。曲靖市将主动服务和融入国家发展战略，认真梳理、虚心学习、专班推进，把各位企业家的真知灼见转化为具体措施、务实行动，以更优的服务、更优的环境，让企业放心投资、安心经营、专心发展，携手谱写合作共赢新篇章。', '招商考察期间，杨斌一行还参观了上海数智体验馆、人民城市建设规划展示馆、上海科技创新成果展，考察学习上海市科技创新、数字经济、对外开放、城市建设等方面的先进经验做法。杨斌强调，要认真学习上海“海纳百川、追求卓越、开明睿智、大气谦和”的城市精神，学习“真情实意、真金白银、真抓实干帮扶”的务实作风和为民情怀，学习“干在实处、走在前列、勇立潮头”的精气神，学习坚持“吃改革饭、走开放路、打创新牌”的办法措施，推动曲靖高质量跨越式发展不断取得新成效。要深入学习贯彻习近平总书记关于新质生产力的重要论述，巩固提升传统产业，加快发展新兴产业，前瞻布局未来产业，大力推进科技创新，以科技创新引领产业创新，推进发展方式创新，深化体制机制创新，深化人才工作机制创新，深化“政、产、学、研、用”融合，推动“科技－产业－金融”良性循环，推进创新链、产业链、人才链、资金链深度融合发展，构建实体经济、科技创新、现代金融、人力资源协同发展的现代产业体系。要扎实做好“立足曲靖发展曲靖、跳出曲靖发展曲靖”大文章，持续扩大对内对外开放，大力推进开放平台建设，更好利用国内国际两个市场、两种资源，构建更有活力的开放型经济体系，提高经济外向度，提升开放发展水平，以高水平开放推动高质量发展。要认真践行“人民城市人民建，人民城市为人民”重要理念，坚持“一个尊重、五个统筹”，实施城市更新行动，推进城镇老旧小区改造，加快推进新型城镇化，让更多人享有更高品质的城市生活。', '省政府副秘书长、省工信厅副厅长施友连，省政府驻上海办事处主任马翔，省商务厅副厅长谭伟，曲靖市领导马国庆、朱党柱、解天云、杨庆东、于韬、唐开荣、吴静等参加。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>252</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>杨斌率队赴上海高校学习考察</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2024/qthy_0430/265820.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['曲靖融媒讯（记者 唐开虎/文 严帅/图）4月28日至29日，省委常委、市委书记杨斌率队赴上海高校学习考察，与同济大学党委书记方守恩，复旦大学校长、中国科学院院士金力，上海交通大学校长、中国科学院院士丁奎岭，中国科学院上海分院院长胡金波就深化校地合作深入交流，共商共谋发展，与上海交通大学签订框架合作协议，同济大学授予曲靖二中、宣威一中、宣威六中“优质生源基地”，上海交通大学授予曲靖一中“优质生源基地”。', '杨斌代表市委、市人大常委会、市政府、市政协对同济大学、复旦大学、上海交通大学、中国科学院上海分院长期以来给予曲靖经济社会发展的帮助与支持表示感谢。他说，同济大学、复旦大学、上海交通大学有着百年历史的丰厚底蕴，久负盛名，享誉海内外，科研实力雄厚，创新成果丰硕；中国科学院上海分院人才智力荟萃，是国家创新人才高地、国家高水平科技智库、国际一流科研机构。此次到访的主要目的是学习取经、招才引智、深化合作。曲靖作为云南第二大城市、第二大经济体，正按照省委、省政府要求，努力建设省域副中心城市，打造区域先进制造业中心、区域科技创新中心、区域医疗康养中心、全省教育次中心，迫切需要各高校的强大教学科研实力、一流专家团队的支持支撑。希望各高校一如既往关心支持曲靖发展，深化在科技创新、现代化产业体系构建、教育事业发展、人才培养、干部培训、医疗卫生等领域务实合作，共同打造优质生源基地，探索共建科研平台，深化产学研用融合，努力走好协同创新之路，推进创新链、产业链、人才链、资金链深度融合发展，在助力曲靖加快发展新质生产力、推动高质量跨越式发展上发挥关键性、引领性、帮扶性作用。热忱欢迎各位专家、学子到曲靖创新创业、实习实践，让高校智慧、高校力量、高校方案在曲靖得到生动实践、结出丰硕成果，共同谱写校地合作、共赢发展新篇章。', '方守恩、金力、丁奎岭、胡金波对曲靖党政代表团的到访表示欢迎。他们指出，长期以来，各高校与曲靖市开展多形式的校地合作，在人才培养、产业发展、脱贫攻坚、医疗帮扶、干部培训等方面具有良好合作基础。希望双方在此次交流基础上，坚持“曲靖所需、学校所长”，聚焦科技成果转化、人才培养、基础教育、医疗卫生等方面开展务实深度合作，把“施工图”变为“实景图”，携手推动双方高质量发展再上新台阶。', '省政府副秘书长、省工信厅副厅长施友连，省商务厅副厅长谭伟，曲靖市马国庆、朱党柱、解天云、杨庆东、于韬、唐开荣、吴静等参加。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>252</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>曲靖市党政代表团赴维西考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2023/qthy_0925/111963.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['曲靖融媒讯（记者谢晓东）9月22日至23日，曲靖市委副书记、市长李先祥率曲靖市党政代表团赴迪庆州维西县考察学习，并召开交流座谈会。迪庆州委副书记、州长张卫东参加有关活动。', '李先祥代表曲靖市委、市政府对迪庆州近年来经济社会发展取得的成效表示祝贺，对曲靖支援帮扶人员的辛勤付出和迪庆州、县两级给予的关心爱护表示感谢。他指出，近年来，迪庆州认真贯彻落实习近平总书记考察云南重要讲话精神，以铸牢中华民族共同体意识为主线，全力维护边疆稳固，“民族团结进步示范区”建设成效显著。李先祥表示，支援帮扶就是为了让群众受益。曲靖市将坚决贯彻落实好党中央、国务院决策部署和省委、省政府工作安排，聚焦谋发展、促协作，推动支援帮扶工作提质量、上台阶、出成效。要尽曲靖所能、解迪庆所需，建立常态长效机制，在教育、医疗、人才和乡村振兴等帮扶领域再发力。要加强对支援帮扶人员的关爱关怀，激发内生动力，汇聚多方合力，推动两地交流合作取得更加丰硕的成果。支援帮扶人员要按照中央、省市工作要求，进一步提高政治站位，勇担当善作为，全力以赴完成支援帮扶这项光荣而艰巨的任务，打造一只“带不走”的人才队伍。', '张卫东代表迪庆州委、州政府对曲靖党政代表团的到来表示欢迎，对曲靖长期以来给予的支持帮助表示感谢。他说，自2013年结对帮扶以来，曲靖市委、市政府始终以高度的政治责任感和使命感，真金白银倾情投入，全力做好支援帮扶各项工作，为维西县脱贫攻坚、乡村振兴、人才培养等方面提供了强有力的帮助。希望曲靖一如既往地关心支持维西，特别是在产业协作、人才支撑等方面进一步深化协作，推动双方合作再上新台阶。', '曲靖市委副书记马国庆，市委常委、市委组织部部长李垠乐，市委常委、副市长于韬，市政府秘书长刘乔红，迪庆州委副书记李燕兰，罗平县、会泽县和维西县有关负责人参加活动。', '考察期间，代表团一行先后考察调研教育、医疗、产业等支援帮扶情况，并看望慰问支援帮扶人员。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>252</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>广西河池市供销社到麒麟区供销社考察学习商贸流通领域建设工作</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2023/bmdt2_0601/109083.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['广西河池市供销社到麒麟区供销社考察学习商贸流通领域建设工作 - 部门动态 - 曲靖市人民政府门户网', '5月30日，广西河池市供销社监事会主任龙化彬率队到我区考察学习借鉴商贸流通领域经验做法。市供销社监事会主任刘少先、四级调研员陶光平、区供销社理事会副主任龙娟等陪同参观现场，介绍了发展农村商贸流通建设的有关情况。', '考察组实地考察了麒麟区益靖供销有限责任公司县域集配中心、麒麟供销平安社区消费服务中心、三宝供销社鸡汤综合服务社等现场，详细了解了麒麟区供销社整合资源、依托供销社镇(街道)村网络、网点，不断拓展业务，寻求有实力的大米和食用油供应商合作，采用食盐配送机制，开展大米和食用油配送业务，公司依托“一包盐”、“一袋米”、“一桶油”积极做好产品下乡工作，围绕“管理一流、服务一流”的目标，把粮、油、盐配送作为展示公司形象的窗口，不断加强软硬环境建设，着力提高配送服务质量，提高管理水平，解决城乡居民生产生活“最后一公里”需求的经验做法，并就快递物流与供销社网络建设、主责主业融合发展等具体问题进行了深度交流。', '通过实地学习考察，考察组一行表示受益匪浅，深受启发，日后将紧密结合自身实际，互相学习借鉴先进做法和工作经验，进一步加大商贸流通领域建设工作，实现供销事业创新发展。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>252</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>学习考察拓视野夯基垒台谋振兴市科技局驻村工作队赴市内优秀科技型农业企业学习考察</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-06-19</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2023/bmdt2_0619/109420.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['学习考察拓视野 夯基垒台谋振兴——市科技局驻村工作队赴市内优秀科技型农业企业学习考察 - 部门动态 - 曲靖市人民政府门户网', '学习考察拓视野 夯基垒台谋振兴——市科技局驻村工作队赴市内优秀科技型农业企业学习考察', '6月16日，市科技局驻村工作队与驾车乡相关部门领导和村两委干部一行8人赴市内优秀科技型企业学习考察。', '学习考察团一行先后参观了宣威市福康生物科技有限公司和云南滇艺花卉有限公司，通过“看、听、问”的方式与企业负责人深入交流，全方位了解企业的成功经验和在乡村振兴中的有效做法。在企业负责人的带领下参观了企业的育苗基地、种植基地、生产加工车间，了解企业发展历程和未来发展，重点学习了解了企业在乡村振兴中发挥的帮扶带动作用和成效。', '考察团介绍了本乡本村的地理环境、产业发展和市科技局近年来的帮扶成效，诚挚邀请企业负责人到帮扶地区考察了解，依托帮扶区域资源禀赋，探索共同发展渠道，助力帮扶地区脱贫群众增收致富和集体经济持续壮大。两家企业负责人均表示，下一步，将积极到驾车乡腰店考察了解，力所能及的提供信息、技术、资金和智力支持，为腰店村农民增收、乡村振兴发展贡献力量。驻村工作队与企业负责人商谈，已初步达成白芨、天生米和绣球花试种试栽的意向，并为村两委干部赠送了部分天生米种苗。', '此次考察学习既开阔了视野、学到了方法，又找准了方向、坚定了信心。下一步，驻村工作队和村两委干部会积极创造有利条件，争取两家企业在腰店村建立种植基地，以带动腰店村脱贫群众增收致富，壮大集体经济，推动腰店村振兴发展再上台阶。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>252</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>云南省党政代表团赴浙江学习考察深化滇浙产业协作携手实现共赢发展王宁王予波率队与易炼红王浩交流石玉钢参加</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2023/tt_0515/107981.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['云南省党政代表团赴浙江学习考察 深化滇浙产业协作 携手实现共赢发展 王宁王予波率队 与易炼红王浩交流 石玉钢参加 - 头条 - 曲靖市人民政府门户网', '云南省党政代表团赴浙江学习考察 深化滇浙产业协作 携手实现共赢发展 王宁王予波率队 与易炼红王浩交流 石玉钢参加', '5月12日至13日，省委书记王宁、省长王予波率云南省党政代表团赴浙江省，学习考察浙江改革开放和经济社会发展先进经验，推进两省产业协作，携手实现共赢发展。浙江省委书记易炼红、省长王浩参加相关活动，与代表团进行交流。云南省委副书记石玉钢参加学习考察。', '5月12日，云南省党政代表团一行来到杭州医药港，考察当地打造生物医药“链式+集群”产业发展新模式。', '浙江作为我国改革开放和中国式现代化建设先行地，始终勇于改革创新、先行先试，不断创造新的发展业绩，特别是在民营经济、数字经济等方面成效卓著、探索了宝贵经验。云南省党政代表团走进浙江省的生物医药、商贸、智能制造、信息技术、新材料、数字经济等企业和园区，认真学习了解当地产业培育、科技赋能、园区运营、产城融合、营商环境等发展情况和经验做法，围绕滇浙两地加强优势互补、深化产业协作进行深入交流。', '5月13日，云南省党政代表团一行来到紫光恒越（杭州）技术有限公司，了解以技术创新为引擎，支持政府、企业数字化改革的经验做法。', '代表团来到杭州医药港考察当地打造生物医药“链式+集群”产业发展新模式，从中学习推进生物医药产业集群快速发展壮大的经验，就发挥云南资源优势，加强双方生物医药产业协作进行交流。在浙江国贸集团，企业负责人介绍了该集团打造商贸、金融、健康三大板块业务，推进省属国企转型发展的做法，为云南深化国企改革带来启示。主营智慧能源系统解决方案的正泰集团、生产制造新基建基础设施的紫光恒越公司，紧盯科技前沿和行业高端，推动创新链产业链深度融合，与云南在绿色能源产业、数字化发展等方面合作空间潜力巨大。中国民企500强企业传化集团，已在云南布局多项产业，双方期待继续拓展合作，在滇发展绿色硅精深加工，推动产业链向下游延伸。在阿里巴巴西溪园区，代表团成员亲身感受了数字商业蓬勃发展的活力，从电商助农案例中看到推进乡村振兴的新路径，希望通过阿里巴巴乡村振兴特派员培训带动更多返乡大学生等创新创业。天目里园区文创、商业等多元业态融合发展，未来科技城打造创新策源地、发展战略性新兴产业等，也给大家带来了城市规划、园区生态、创新发展等方面的新思考。', '5月13日，云南省党政代表团一行来到杭州未来科技城城市展馆，听取城市规划、产业布局、产城融合等经验做法介绍。', '在考察交流中，两地同志表示，滇浙两地合作基础厚实，前景广阔。希望共同深入贯彻落实党的二十大精神和习近平总书记关于深化东西部协作的重要指示精神，进一步拓展滇浙交流协作，结合浙江的资金、管理、人才、市场等优势和云南资源、区位、生态、劳动力等优势，吸引更多浙商到云南投资发展，推进滇浙产业转移协作，拓展智能制造、特色农业、文化旅游、数字经济等领域合作，在新征程上携手共进、共同发展。', '5月13日，云南省党政代表团一行来到正泰集团，听取企业发展及与云南经济合作情况介绍。', '在浙江期间，云南省还举行了产业宣传推介座谈会。王予波等省领导，以及16州（市）、省直有关部门负责同志，与浙江省企业家面对面交流对接。企业家们对云南营商环境给予积极评价，表示期待到云南扩大投资合作。会上进行了有关合作项目签约。', '云南省领导冯志礼、刘洪建、李刚、邱江、刘非、王显刚、王浩、杨洋，浙江省、杭州市领导刘捷、姚高员参加相关活动。云南省各州（市）党委或政府主要负责同志、省直有关部门负责同志参加学习考察。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>252</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>云南省赴上海浙江广东学习考察党政代表团召开总结会提出学习东部发达省市好经验好做法推动主题教育走深走实王宁主持并讲话石玉钢出席</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-05-17</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2023/tt_0517/108855.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['云南省赴上海浙江广东学习考察党政代表团召开总结会提出 学习东部发达省市好经验好做法 推动主题教育走深走实 王宁主持并讲话 石玉钢出席 - 头条 - 曲靖市人民政府门户网', '云南省赴上海浙江广东学习考察党政代表团召开总结会提出 学习东部发达省市好经验好做法 推动主题教育走深走实 王宁主持并讲话 石玉钢出席', '5月15日，云南省党政代表团结束赴上海市、浙江省、广东省学习考察行程，在深圳召开总结会，交流考察体会，明确努力方向，要求认真学习东部发达省市贯彻习近平新时代中国特色社会主义思想的先进经验和成功做法，把学习收获转化为改进工作、推动发展的思路办法和具体行动，推动主题教育走深走实。', '5天时间、3个省市，21个学习考察点、3场企业家座谈会，行程紧凑、内容充实，代表团成员深受启发、收获满满。大家认为，上海、浙江、广东深入贯彻党的二十大精神和习近平总书记重要指示精神，坚决落实党中央、国务院重大决策部署，创造性开展工作，取得领跑全国的发展成绩，其解放思想、务实奋进的精神，开拓创新、敢为人先的举措，值得认真学习借鉴。', '大家谈到，3省市坚持政府规划引导，激发经营主体活力，在现代化产业体系建设上走在前列。伽蓝公司强化科技研发拓宽化妆品市场空间，杭州医药港“链式+集群”新模式迅速聚集生物医药产业，传化集团持续转型升级形成新材料产业集群，立白集团不断推陈出新日化产品，正泰集团、紫光恒越公司创新驱动做强先进制造，拼多多、阿里巴巴等平台企业开拓数字商业新赛道，科大讯飞、华为等高科技企业勇攀数字化发展新高峰，浙江国贸、中集集团、华润集团等大型企业以全球视野和先进理念拓展业务版图。这些企业的探索实践，为云南谋划推进产业发展提供了可学可鉴的样板。', '大家也从上海徐汇滨江片区、奉贤新城，杭州未来城、天目里园区，广州中心城区等区域规划、产业布局、园区运营经验中得到启发；在中山医院交流对接远程智慧医疗合作事宜；在上海农科院、深农集团找到加强农业合作的切入点。', '大家表示，通过学习考察，既看到自身差距和不足，也看到云南的特有优势和发展潜力，强化了大抓产业发展、大抓招商引资、大抓营商环境的紧迫感、使命感和责任感，坚定了比学赶超、加快发展的信心和决心，要对标先进、奋起直追，学习借鉴好经验好做法，推动本地区本部门工作取得新成效。', '这一路，既是开阔视野、学习先进的过程，也是深化协作、招商引资的难得机会。代表团与上海市共同召开沪滇对口协作联席会议，还与3省市共58家企业座谈交流，签订科技创新、产业投资等协议，促成更多企业到云南深化合作、开拓业务。', '王宁在总结时指出，组织赴上海、浙江、广东学习考察，是深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育的重要举措，是一次深入现代产业聚集地、科技创新最前沿和招商引资第一线的调查研究。要总结好、运用好学习考察成果，推动东部地区的资金、管理、人才、市场和云南的区位、绿色能源、高原特色农业、文旅资源、矿产资源、生物资源、劳动力等优势形成互补，找准工作突破口和着力点，大力发展资源经济、加快发展口岸经济、全面振兴园区经济，着力提升云南的核心竞争力，打造新的经济增长点。要坚持眼睛向外，立足可持续发展，增强改革开放、产业布局、城市建设等工作的前瞻性，以高起点规划引领高水平发展。要做好学习考察的“课后作业”，在本地区本部门积极推行学习成果，形成成果转化任务清单，主动对接考察过程中达成的合作意向，推动已有项目加快进度，促成新的项目加快落地，持续抓好招商引资、承接产业转移等重点工作，努力在经济高质量跨越式发展上取得新突破，实现弯道超车、后来居上，以实际发展成果检验主题教育成效。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>252</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>云南省党政代表团赴广东学习考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-05-16</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2023/tt_0516/108837.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['共同谱写滇粤协作新篇章 黄坤明与王宁座谈交流 王伟中黄楚平孟凡利石玉钢参加相关活动', '5月14日至15日，云南省党政代表团赴广东省，学习考察广东改革开放和经济社会发展先进经验，推进两省深化交流协作。', '广东省委书记黄坤明与云南省委书记王宁座谈交流。广东省委副书记、省长王伟中，省人大常委会主任黄楚平，省委副书记、深圳市委书记孟凡利；云南省委副书记石玉钢参加相关活动。', '黄坤明代表广东省委、省政府对云南省党政代表团表示欢迎，对云南长期以来给予广东工作的大力支持表示感谢。他说，云南生态环境良好、自然资源丰富、能源优势突出、区位条件优越。近年来，云南深入学习贯彻习近平总书记考察云南重要讲话和重要指示批示精神，围绕落实建设我国民族团结进步示范区、生态文明建设排头兵、面向南亚东南亚辐射中心“三个定位”，扎实推进经济社会高质量跨越式发展，许多好思路、好做法值得广东学习借鉴。广东和云南交流密切、情深谊长，近年来粤滇两省各领域交流交往持续深化，实现了优势互补、共同发展。迈上新征程，两省携手开展更为深入务实的合作前景广阔、潜力巨大。', '黄坤明指出，当前，广东正深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育，认真贯彻落实党的二十大精神和习近平总书记视察广东重要讲话、重要指示精神，按照总书记赋予的使命任务，在推动高质量发展上聚焦用力，奋力在推进中国式现代化建设中走在前列。希望与云南一道，立足既有合作基础，发挥各自优势，共同落实好以习近平同志为核心的党中央决策部署，在中国式现代化道路上携手并进、共谱新篇，实现互利共赢、共同发展。广东将着力加强重大战略合作，以更大力度推进两省基础设施互联互通，共建西部陆海新通道，促进沿海、内陆和沿边联动发展，用足用好广交会、高交会、南博会等平台资源和渠道，共同开拓南亚、东南亚等市场，更好融入和服务新发展格局；加强产业合作，充分发挥云南矿产、能源、农业等优势和广东制造业优势，进一步强化对接，推动两省在现代农业、绿色能源、生物医药、现代物流、新材料、数字经济等领域深化合作，共同提升产业链供应链的韧性和竞争力；加强市场合作，促进扩大双向投资，大力推动云南优质农产品走进大湾区大市场和广东优质产品进入云南、开拓西南大市场，聚焦在校企合作、供需对接、信息共享、权益保障等方面强化劳务合作；加强文化旅游合作，支持鼓励文旅部门和企业之间加强沟通对接、整合文旅资源，联手开发文旅融合新产品新业态，开展营销推介，打造游客互换新市场，实现新的更大发展。', '5月14日，云南省党政代表团一行来到科大讯飞，考察人工智能、大数据等前沿科技创新成果。', '王宁代表云南省委、省政府和全省各族人民对广东省长期以来的支持帮助表示衷心感谢。他说，滇粤两地情谊深厚、合作源远流长。特别是在云南打响精准脱贫攻坚战的关键时刻，广东省坚决贯彻习近平总书记关于东西部扶贫协作的重要指示精神，按照党中央关于对口支援工作的部署要求，结合云南所需、广东所能，全力给予帮扶支持，为云南全面打赢脱贫攻坚战作出了重要贡献。', '王宁表示，广东是改革开放的排头兵、先行地、实验区，在中国式现代化建设的大局中地位重要、作用突出。多年来，广东省在改革开放、科技创新、产业发展、城市建设等方面探索创造的一系列好经验好做法，广东干部群众改革创新的勇气、先行先试的魄力、务实干事的作风，都值得云南认真学习借鉴。当前，云南正全面贯彻落实党的二十大精神和习近平总书记考察云南重要讲话精神，深入开展主题教育，奋力推进高质量跨越式发展，经济发展平稳向好，社会安定和谐，民生持续改善，区位、绿色能源、文化旅游、高原特色农业等优势不断凸显，未来发展态势良好、潜力巨大。在推进中国式现代化建设新征程上，云南愿与广东赓续传统情谊，巩固深化双方在扶贫协作中形成的有效合作机制，共同服务粤港澳大湾区建设等国家发展战略，在产业转移、绿色能源开发、现代农业、劳动力资源开发、文化旅游等方面进一步加强对接，拓展更深层次、更宽领域、更广范围的合作，共同谱写滇粤协作新篇章。', '5月15日，云南省党政代表团一行来到深农集团，考察农产品交易流通标准化、智慧农业。', '在粤期间，代表团先后在广州、深圳两市考察，到立白集团了解日化产品产业情况，到科大讯飞考察人工智能、大数据等前沿科技创新成果，在广州城市客厅学习广州市经济社会发展和城市规划建设管理经验，到华为公司了解数字化应用情况并探讨合作加强云南防灾救灾、口岸通关等领域智能化建设，到深农集团考察农产品交易流通标准化、智慧农业，到中集集团、华润集团了解企业先进管理和在滇投资情况。我省还举行产业宣传推介座谈会，与广东省企业家交流对接，推动滇粤产业协作。', '广东省和广州市、深圳市领导袁古洁、张晓强、郭永航、覃伟中，云南省领导冯志礼、刘洪建、李刚、邱江、刘非、王显刚、王浩、杨洋参加相关活动。云南省各州（市）党委主要负责同志、省直有关部门负责同志参加学习考察。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>252</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>玉溪考察团到珠街街道考察学习枫桥式综治中心</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2021-10-08</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2021/xqdt2_1008/97282.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['玉溪考察团到珠街街道考察学习“枫桥式”综治中心 - 县区动态 - 曲靖市人民政府门户网', '9月24日上午，玉溪考察团一行到珠街街道中所村委会考察学习“枫桥式”综治中心。 玉溪考察团一行通过实地走访珠街街道中所村综治中心，观摩了综治室、调解室、警务室、信访接待室、监控室、装备室、公共法律服务站、红色驿站、民情收集站、微型消防站等功能室，听取街道有关领导汇报，详细了解了街道基层社会治理情况及网格划分、全科网格作用发挥、乡贤参与社会治理、“枫桥式”综治中心建设等工作情况。 考察团认为，珠街街道在社会治理方面的创新经验和做法十分具有参考价值和可操作性，希望通过双方的交流学习共同提升两地的社会治理水平。 据悉，珠街街道积极探索创新基层社会治理新模式。一是强化网格管村，坚持将网格化管理作为提升乡村治理水平的重要抓手，不断优化网格设置，形成了“人在网中行、事在格中办、结在化中解”的工作格局。二是助推乡贤治村，邀请乡贤成员定期列席村“三委”会议，充分发挥乡贤在乡村治理中的作用，为基层社会治理注入社会力量。三是借助“人防+技防”共治。成立中所村联防队，购买8辆巡逻摩托车，安排8名成员在重要时间点开展巡逻，同时建设雪亮工程和“智慧大喇叭”，建成监控探头518个，“智慧大喇叭”110个，有力夯实“人防+技防”治理基础，进一步提升基层治理水平。', '玉溪考察团一行通过实地走访珠街街道中所村综治中心，观摩了综治室、调解室、警务室、信访接待室、监控室、装备室、公共法律服务站、红色驿站、民情收集站、微型消防站等功能室，听取街道有关领导汇报，详细了解了街道基层社会治理情况及网格划分、全科网格作用发挥、乡贤参与社会治理、“枫桥式”综治中心建设等工作情况。', '考察团认为，珠街街道在社会治理方面的创新经验和做法十分具有参考价值和可操作性，希望通过双方的交流学习共同提升两地的社会治理水平。', '据悉，珠街街道积极探索创新基层社会治理新模式。一是强化网格管村，坚持将网格化管理作为提升乡村治理水平的重要抓手，不断优化网格设置，形成了“人在网中行、事在格中办、结在化中解”的工作格局。二是助推乡贤治村，邀请乡贤成员定期列席村“三委”会议，充分发挥乡贤在乡村治理中的作用，为基层社会治理注入社会力量。三是借助“人防+技防”共治。成立中所村联防队，购买8辆巡逻摩托车，安排8名成员在重要时间点开展巡逻，同时建设雪亮工程和“智慧大喇叭”，建成监控探头518个，“智慧大喇叭”110个，有力夯实“人防+技防”治理基础，进一步提升基层治理水平。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>252</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>曲靖市赴四川宜宾考察学习煤矿瓦斯防治先进经验</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-06-22</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2022/bmdt2_0622/102657.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['曲靖市赴四川宜宾考察学习煤矿瓦斯防治先进经验 - 部门动态 - 曲靖市人民政府门户网', '为提升煤矿瓦斯防治水平，进一步夯实煤矿安全基础，切实抓好当前煤矿安全生产工作，实现煤炭产业高质量发展。根据曲靖市政府工作安排，曲靖市能源局于2022年6月7日至11日组织了由国家矿山安全监察局云南局法规科技处处长朱帮能带队，曲靖市能源局副局长殷文明、国家矿山安全监察局云南局执法一处副处长龙杰等组成的考察组，对四川宜宾煤矿的瓦斯防治技术进行了考察学习。', '考察组一行于6月8日到筠连县川煤华荣能源公司新维煤矿，首先参观了煤矿地面的党建工作、安全文化长廊、基础设施建设以及生产调度室，其次听取煤矿总工程师黄正谷就“1+4”瓦斯防治体系、结合煤矿瓦斯防治“八招”工作措施等方面对煤矿瓦斯防治进行详细介绍，之后又分组到井下对“110工法”沿空留巷、底板穿层抽瓦斯、超高压水力割缝和水力压裂等技术进行学习参观，最后煤矿组织召开考察学习交流会，会上朱帮能处长对宜宾市应急管理局考察行程安排、新维煤矿的精心接待表示感谢，对煤矿的瓦斯治理应用新工艺、新技术、新装备给予充分肯定，督促曲靖煤矿企业和行业管理部门结合实际利用好此次学习成果，诚挚邀请四川宜宾应急管理局及煤炭行业同仁到云南考察指导工作。', '6月9日召开考察组内部交流会，煤矿企业和行业管理部门积极发言，畅谈了考察学习心得和针对瓦斯防治的下步工作方向和重点。', '6月10日考察组到兴文县大旗煤矿分组下井参观11031运输巷观摩柔模混凝土沿空留巷和+880底抽巷水力割缝技术。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>252</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>富源县林业和草原局到会泽考察学习</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2021-08-26</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2021/bmdt2_0826/96368.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['8月19日至20日，富源县林业和草原局一行13人到会泽考察学习核桃抚育管理及初加工建设、交易市场搭建等工作。', '考察组先后到了大桥乡、迤车镇，实地察看了核桃提质增效项目的实施情况、核桃生长及挂果情况，听取了会泽核桃销售加工情况的详细介绍，并参观了会泽念湖坚果开发有限公司核桃初加工车间。随后，考察组深入到娜姑镇盐水石榴种植基地，了解娜姑镇软籽石榴产量、产值情况、退耕还林实施及带动周边农户脱贫致富情况。考察组认为，会泽县政府高度重视林业产业发展工作，在核桃产业提质增效、转型升级发展方面思维超前，措施得力，制度完善，发展迅速，值得学习借鉴。', '据悉，核桃产业作为会泽的传统产业、特色产业，经过多年发展，全县核桃保存面积达到102 万亩，实现投产面积80万亩，实现核桃产量8万吨，产值20亿元。核桃产业成为会泽县山区群众增收的重要途径之一。但近年来，受全球经济的影响，干果市场整体下滑，核桃价格走低，许多农户对核桃疏于管理，核桃品质下降，出现了增产不增收的情况，甚至少数地方出现了滞销。对此，会泽县委、县政府高度重视，认真研究，采取多项措施，全面开展核桃产业提质增效及推进精深加工，以提高产量及产值来弥补价格的不足，助农增收。(李东丽)', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>252</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>曲靖市民政局赴昭通市学习考察社会救助工作</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2020-12-03</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2020/bmdt2_1203/84637.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['为全力保障易地搬迁困难群众基本生活，切实服务好易地扶贫搬迁工作。近日，市民政局马志坤副局长带队，组织相关县(市、区)民政局领导和工作人员赴昭通市学习考察易地扶贫搬迁困难群众的社会救助工作。 考察组一行通过座谈交流、实地到昭阳区靖安安置点、鲁甸县卯家湾安置点走访调研的形式学习交流。座谈会上，昭通市民政局对易地搬迁困难群众的社会救助工作作了详细的介绍，重点对易地搬迁后符合条件的农村低保如何直接转为城市低保，从流程、程序、系统技术处理等方面作了详细的说明介绍。在易地搬迁点，考察组详细了解民政窗口的服务内容和工作规范。 通过学习、考察、交流，拓展了视野，开阔了思路。昭通市民政工作新做法、新经验，非常值得学习，为下步做好全市易地搬迁困难群众的社会救助工作提供了有益借鉴。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>252</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>楚雄州考察团到沾益考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2022/xqdt2_0530/102314.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['5月28日，楚雄州委常委、常务副州长陈锐率考察团到沾益区考察学习工业阳极碳素项目和有机硅项目。', '考察团一行在副市长普利锋，沾益区委常委、常务副区长孔令德以及工信等相关部门领导陪同下，深入到花山工业片区，实地考察学习索通云铝90万吨阳极碳素项目、云南能投40万吨有机硅单体及配套项目。', '项目全部建成后，公司将成为单体规模全球最大、技术工艺全国领先的炭材料生产企业，其产品主要供应云铝股份公司铝电解使用，同时辐射西南区域铝电解企业，可满足180万吨电解铝产能需要，年均可实现销售收入30亿元，利税4亿元，提供就业岗位800余个。', '云能硅材40万吨有机硅项目总投资42.9亿元，主要建设40万吨/年有机硅单体生产装置，配套建设下游深加工产品，产品包括DMC、D4、107胶、110胶等，周边配套硅油、白炭黑等深加工产品。项目分两期建设，每期20万吨，项目全部建成后，单体产能将排名全国第三，预计实现年销售收入50亿元、利税10亿元。沾益区依托云能硅材40万吨有机硅项目龙头带动作用，规划建设5000亩有机硅新材料产业园，努力建成西南地区最具竞争优势、辐射南亚东南亚的高端绿色硅材产业基地。', '通过实地查看和听取汇报，考察组一行高度评价了沾益区在工业发展上取得的成绩，认为沾益区在工业发展中，立足本地资源禀赋，紧盯市场需求，开拓创新、锐意进取，实施“腾笼换鸟”转型升级战略，推动传统落后工业产业向高端化、绿色化、智能化发展，传统产业实现迭代升级，工业产业质量效益和竞争力显著提升。', '考察组一行表示，沾益区在传统工业转型升级、促进产业集群发展、发展循环经济的经验和做法值得学习和借鉴，希望今后进一步增进交流，加强合作，推动两地经济社会高质量跨越式发展。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>252</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>昭通市民政局到曲靖市考察学习城市公办养老机构建设及运营管理工作</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2020-08-27</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2020/bmdt2_0827/82764.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['昭通市民政局到曲靖市考察学习城市公办养老机构建设及运营管理工作 - 部门动态 - 曲靖市人民政府门户网', '8月26日，昭通市民政局领导及工作人员一行人，到我市考察学习城市公办养老机构建设及运营管理工作。曲靖市民政局副局长陪同。 近年来，我市始终把养老机构工作建设作为重大民生工程，以项目建设为抓手，以规范运行为突破口，强化措施大力推进。曲靖市辖3区1市5县和1个国家级经济技术开发区，已建成投入使用城市公办养老机构6个（另有7个在建），2012至2019年累计投入资金2.1亿元新建（改造提升）城市公办养老机构。 考察组一行参观了曲靖市老年公寓，详细了解公办养老机构结构设置、基本运营和管理等相关工作，认为我市在城市公办养老机构规划建设、管理运营中有很多好的做法和经验值得学习，希望在今后的工作中进一步加强沟通交流，共同推动民政相关工作更好发展。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>252</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>武定县工业信息化商务科学技术局到富源考察学习交流</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2020-08-10</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2020/xqdt2_0810/82399.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['武定县工业信息化商务科学技术局到富源考察学习交流 - 县区动态 - 曲靖市人民政府门户网', '考察团一行先后参观了今飞轮毂制造有限责任公司、富源县电子商务公共服务中心、富源县仓储物流中心、富源县城市展览馆、东堡社区服务站点、青石社区服务站点、云南富源金田源农产品开发有限责任公司，详细了解了富源县工业园区和电子商务进农村综合示范项目基本情况、建设现状、发展思路等。', '最后，双方就园区发展、电子商务进农村打通物流“最后一公里”等问题进行了互动交流，考察团一行对园区建设和电子商务进农村的经验做法给予高度评价，并希望今后能够进一步加强沟通联系，相互学习提高，共谋两地发展美好未来。 （明晓婕）', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>252</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>保山市民政局到我市考察学习公建民营养老服务工作</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2020-04-02</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2020/bmdt2_0402/79452.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['保山市民政局到我市考察学习公建民营养老服务工作 - 部门动态 - 曲靖市人民政府门户网', '4月1日上午，保山市民政局局长带领相关人员到我市考察学习养老服务业发展情况。市民政局领导、沾益区分管领导陪同考察。 保山市民政局局长一行来到曲靖市老年公寓详细了解建设情况、运营模式、运营情况、现入住老年人生活状况等情况等。市老年公寓工作人员向考察组详细介绍了曲靖市老年公寓建设情况、运营模式、管理情况、老年人生活状况、工作人员工资待遇等有关情况。 曲靖市老年公寓是曲靖市首家确立的公建民营养老机构，由曲靖市沾益区负责建设，采取公建民营方式进行运营，是曲靖市公建民营养老机构的代表，现入住老年人88人。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>252</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>新疆昌吉市到罗平考察学习创新中国成立家森林城市</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2020-01-08</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2020/xqdt2_0108/77107.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['新疆昌吉市到罗平考察学习创新中国成立家森林城市 - 县区动态 - 曲靖市人民政府门户网', '1月7日，新疆昌吉市创新中国成立家森林城市考察学习团一行到罗平县旧屋基乡考察学习国家森林城市创建工作。曲靖市林草局陪同考察学习。', '考察学习团一行到罗平县旧屋基乡法湾村，重点听取了旧屋基乡林草工作机构对全国生态文化村生态环境治理、生态文化建设、生态产业发展、人与自然和谐共处、示范带动情况介绍。考察学习团一行实地参观了法湾村蜜蜂养殖、彝族刺绣，体验了森林旅游。 据了解，“全国生态文化村”是创新中国成立家森林城市的一项重要指标。旧屋基乡法湾村以优良的生态、独特的生态文化、独到的生态发展优势，该村2018年被中国生态文化协会授予“全国生态文化村”，也是罗平县继鲁布革罗斯村、长底乡发达村后第三个获得此殊荣的行政村。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>252</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>楚雄州公安局公安机关考察组到曲靖交流考察学习</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2020-03-24</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2020/bmdt2_0324/79270.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['楚雄州公安局公安机关考察组到曲靖交流考察学习 - 部门动态 - 曲靖市人民政府门户网', '3月18、19日，楚雄州公安局警务保障处处长徐志华带领警务保障、刑侦、经侦、治安、禁毒、科信等部门及云南永仁方山省际公安检查站有关同志一行10人组成考察组，到曲靖考察交流相关业务工作。 考察组一行在相关单位、部门负责人全程陪同下，3月18日下午参观了富源县公安局胜境关警务站、富源县公安局案件管理中心。 3月19日，市局召开座谈会，重点就警务保障工作中经费保障、固定资产管理、机关事务管理进行了深入交流，治安支队、刑侦支队、科信支队、禁毒支队、经侦支队综合处负责人分别向考察组介绍了各自业务工作情况和主要做法，双方进行了深入友好的交流互动。 座谈会后，考察组一行还参观了曲靖市公安局刑事技术、经济侦查、科技信息化装备建设应用工作，听取了相关部门情况介绍。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>252</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>楚雄州发改委赴我委考察学习社会信用体系建设工作</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2019-06-21</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2019/bmdt2_0621/70634.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['楚雄州发改委赴我委考察学习社会信用体系建设工作 - 部门动态 - 曲靖市人民政府门户网', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>252</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>罗平县考察学习麒麟区新时代文明实践中心建设</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2019-07-10</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2019/xqdt2_0710/71126.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['罗平县考察学习麒麟区新时代文明实践中心建设 - 县区动态 - 曲靖市人民政府门户网', '为充分借鉴学习麒麟区新时代文明实践中心建设的先进经验，推动罗平县新时代文明实践中心建设工作扎实有效开展，7月8日，县委副书记李四荣，县委常委、宣传部部长杜毅静带相关工作人员赴麒麟区考察学习，并召开座谈会。', '当天上午，考察团成员分为两组先后对麒麟区新时代文明实践中心、分中心的建设情况，以及麒麟区新时代文明实践中心乡镇（街道）所、站和点进行考察，学习他们的先进经验和典型做法，并与相关负责人进行了深入交流。', '下午考察结束返回罗平后，考察组随即召开了座谈会。与会人员就考察学习体会和下步工作的开展作了交流发言；县文明办负责人安排部署了全县新时代文明实践中心建设工作。 会议要求，要统一思想，提高政治站位，充分认识全县开展新时代文明实践中心（所、站、点）试点建设的重要意义，认清新形势、构筑新阵地、利用新载体、明确新任务，把新时代文明实践中心（所、站、点）建成传播好声音、弘扬主旋律、开创新业绩、凝聚党心民心的主阵地，切实担负起省委、市委赋予的政治使命，强化组织领导，圆满完成试点建设工作；要认真研读《关于罗平县新时代文明实践中心建设实施方案》立足全县和各乡（镇、街道）的历史人文底蕴、生态资源优势、民族聚居风情等特点，在传播践行过程中逐步培育具有特色的活动品牌；要大胆探索，在服务资源的合理配置、基层阵地的精细化管理运作、人文关怀的长效提质等方面大胆探索创新，创造出各有特色的新时代文明实践工作模式；要用心思考，推进试点工作深入开展，特别是要把握好推进工作的时间节点，确保8月底以前完成，同时要梳理现有资源进行整合利用；要及时与各指导组进行沟通，请指导组把关、出点子，同时指导组要做好跟踪服务工作；要紧密联系基层党建、乡村振兴战略、美丽县城创建、脱贫攻坚工作等各项重点工作，统筹好辖区内文化、科技、教育、民政、卫生、体育等有关部门系统的资源，在文明实践平台上发挥作用，形成工作合力，把传播践行融入群众的生产生活中，推动全域文明、全体文明、全程文明，服务好基层群众，确保全县新时代文明实践中心建设取得成效。', '据了解，全县新时代文明实践中心、站、所建设工作，从2019年3月初启动，2019年7月前将建成全县文明实践中心和5个分中心；在腊山街道、旧屋基彝族乡、阿岗镇建成文明实践所3个示范点、文明实践站3个示范点；在县总工会、县文联、县人民法院建成文明实践点3个。2019年12月前全县全面建成新时代文明实践所、站。同时，推动机关、企业、学校及其他各行业开展各种形式的文明实践活动。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>252</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>屏边县委宣传部到罗平县考察学习</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2019-05-15</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2019/xqdt2_0515/69695.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['5月13日，屏边县委常委、宣传部部长尹爱婷带领由该县委宣传部、县扶贫办组成的考察团到罗平县，考察学习脱贫攻坚宣传、脱贫攻坚成效展示等方面的成功经验和做法。罗平县委常委、宣传部部长杜毅静及县委宣传部有关领导陪同考察。', '当天下午，考察团一行到崇文阁脱贫攻坚展览馆，通过观看汇报影像资料及大量系列图文展，并聆听了讲解人员的详细介绍，全面了解了罗平县在脱贫攻坚宣传、脱贫攻坚成效展示等方面好的经验和方法后，纷纷表示，要将以此次考察学习为契机，把罗平的好经验、好做法带回去，切实推进屏边县在脱贫攻坚宣传、脱贫攻坚成效展示等方面工作中取得新成效。', '杜毅静表示，欢迎屏边县委宣传部考察团一行到罗平考察学习，罗平县委宣传部将把积累到的关于脱贫攻坚宣传及成效展示的好经验、好方法分享出来，同时也希望双方今后将加强学习交流，相互借鉴脱贫攻坚工作中好的经验和做法，推动两县脱贫攻坚宣传工作迈上新台阶。 尹爱婷认为，罗平县在脱贫攻坚宣传及成效展示等方面工作中干做出了实实在在的成绩，为屏边县委宣传部在脱贫攻坚宣传工作及成效展示中提供了可借鉴的模式和经验。回去之后，将把此次考察学习到的好做法、好经验应用到实际工作中，为打赢脱贫攻坚战提供强大的舆论支撑。（作者：刘景威）', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>252</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>麒麟区到陆良县学习考察宗教工作</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2019-03-01</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2019/bmdt2_0301/67577.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['为学习借鉴宗教事务管理工作的成功经验和做法，进一步提升麒麟区宗教工作法治化水平，2月25日，曲靖市伊斯兰教协会会长、麒麟区政协副主席合子祥带领区委统战部、区民宗侨务局相关领导到陆良县学习考察宗教工作。', '在陆良县委统战部、县民宗侨务局相关领导的陪同下，考察组重点参观学习了陆良县宗教工作“一网两单”制度落实情况，详细了解“一网两单”制度建设、实施方案、指挥部运行等情况，与陪同领导详细座谈，交流经验。', '通过此次与兄弟县的对口学习交流，开拓了视野、更新了理念，学习借鉴了成功经验和先进做法。下一步，麒麟区将结合实际，取长补短，推动全区宗教工作再上新台阶。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>252</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>市开投公司赴红河州考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2019-04-04</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2019/bmdt2_0404/68727.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>252</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>曲靖市图书馆一行到泸州市图书馆考察学习创文经验</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2018-11-27</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2018/bmdt2_1127/65165.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['曲靖市图书馆一行到泸州市图书馆考察学习创文经验 - 部门动态 - 曲靖市人民政府门户网', '11月20日至23日，曲靖市图书馆一行12人到四川省泸州市图书馆考察学习创健全国文明城市中涉及到公共图书馆指标的先进经验。 在泸州市图书馆，考察团一行参观了学雷锋志愿服务站、文献资源共建共享、全市各区县通借通还、城市书房——24小时自助图书馆以及“酒城讲坛·文化大讲堂”、“书香酒城·农民读书月”、“诵读中华经典·美丽我的酒城”、“幸福酒城·悦读生活”等全民阅读品牌活动，重点学习了泸州图书馆在创建文明城市中“精准对标、精准对图、精准对点”三对创建准起来，并做成展板明确对外公布，做到确保单位全员熟知测评体系和要求。 在随后举行的座谈会上，泸州市图书馆馆长吴铭、副馆长张庆介绍了泸州市图书馆在创健全国文明城市中的有关情况，各部室负责人回答了曲靖市图书馆考察人员提出的志愿队伍建设、创文环境打造、三对创建等方面的问题。泸州市图书馆还向曲靖市图书馆赠送了馆藏精品——泥金写本《妙法莲华经》的复制本，曲靖市图书馆也向泸州市图书馆赠送了二爨精品——《爨宝子碑》、《爨龙颜碑》拓片。 考察团一行表示，曲靖市图书馆将学习借鉴泸州市图书馆在创文工作中的先进经验，始终坚持问题导向，加强软硬环境建设，整改问题补齐短板，确保创文工作各项任务有序推进。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>252</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>曲靖市非公党委赴湖北省学习考察非公党建工作</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2018-08-08</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2018/bmdt2_0808/62108.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['曲靖市非公党委赴湖北省学习考察非公党建工作 - 部门动态 - 曲靖市人民政府门户网', '7月31日至8月4日，市非公党委一行9人赴湖北省荆门市、武汉市考察学习非公经济党建工作。重点对党员积分制管理，选派“红色CEO”等先进经验和做法开展考察学习。7月31日至8月1日，在荆门市工商局相关负责同志的陪同下，考察组一行先后参观了格林美(荆门)园区、福耀玻璃(湖北)公司，荆门浚源服装有限公司，听取了企业党建工作的详细介绍。对党员积分制管理的组织实施和荆门市委向企业选派“红色CEO”的经验做法进行了考察学习。8月2日至8月3日，在武汉市江岸区工商局和武汉市工商局相关负责同志的陪同下，考察组一行，先后考察了中共西马地区楼宇联盟综合委员会、战友集团、传化致远物流公司的非公党建工作。考察过程中，考察组还与当地工商部门就商事制度改革、打击传销、机构改革、行政执法等方面进行了深入交流。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>252</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>文山州商务系统考察团到曲靖电商园区考察学习电子商务工作</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2018-05-18</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2018/bmdt2_0518/59701.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['文山州商务系统考察团到曲靖电商园区考察学习电子商务工作 - 部门动态 - 曲靖市人民政府门户网', '近日，文山州商务系统考察团到曲靖考察电子商务创业园建设发展情况，市商务局曹丽华副局长、区商务局局长吕良超陪同考察。 考察团一行先后参观了园区规划介绍宣传片、电商创业扶持政策、园区运营模式、一站式服务中心和物流仓储中心，了解了创业园电子商务工作的相关情况介绍。通过实地参观、听取情况介绍和与互动交流，考察团对曲靖市电子商务建设发展情况给予了高度评价，认为园区建设思路清晰、亮点突出、成效明显，发展前景广阔，对电子商务试点县工作起到了良好的助推作用。 近年来，曲靖市电商创业园理清发展思路，积极培育电子商务企业和平台，服务大众创业，不断增强本地产品的市场竞争力，实行一站式代办，建立绿色通道，采取多证联办，为入园创业企业提供一站式方便快捷的注册、登记、审批等服务。目前，园区已完成了一、二期的建设，面积达2万余平方米，经过两年半的营运，取得了一定的成效：一是“众创空间”初步搭建，电商集聚氛围开始呈现，入驻商家330户，电商累计销售额3.3亿元，带动直接就业1700余人。二是农产品上行渠道初步建立。日均出港包裹量达3000件以上。 在实地查看和听取情况介绍后，文山州商务系统考察团表示，曲靖在发展电子商务园区方面的创业理念、创业模式和真抓实干的创新举措值得学习借鉴；曲靖市把电子商务作为促进创业就业的新途径，把扶持政策与全民创业需求有效融合，大力培育电子商务企业和平台，走出了自己的路子和特色，这些经验和做法都值得学习。下一步文山州将积极引导地方企业进入电商领域，加强全省“云品荟”平台产品上线，营造电子商务氛围，打牢电商基础，促进文山州经济社会转型发展和产业结构优化。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>252</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>陆良县环保局到宣威市环保局考察学习</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2018-10-16</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2018/bmdt2_1016/63915.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['近日，陆良县环保局到宣威市环保局交流学习，考察我市饮用水水源地保护及磷矿企业监管工作。宣威市环保局局长苏元光、副局长李兴栋、监察队大队长浦绍克等陪同考察学习。 陆良县环保局副局长张世明一行实地考察了宣威磷电有限责任公司，并查阅了宣威市集中式饮用水水源地偏桥水库环境综合整治相关资料。 张世明在学习考察过程中表示，虽然行程紧凑，但通过实地考察、亲身体验，将好经验、好做法学习并消化吸收，回去转化成自己的成果，更加科学合理地管理磷矿企业，加强饮用水水源地环境综合整治，着力提升人居环境。', '陆良县环保局副局长张世明一行实地考察了宣威磷电有限责任公司，并查阅了宣威市集中式饮用水水源地偏桥水库环境综合整治相关资料。', '在学习考察过程中表示，虽然行程紧凑，但通过实地考察、亲身体验，将好经验、好做法学习并消化吸收，回去转化成自己的成果，更加科学合理地管理磷矿企业，加强饮用水水源地环境综合整治，着力提升人居环境。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>252</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>富源县考察团到罗平学习考察脱贫攻坚展览馆布展工作</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2018-10-10</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2018/xqdt2_1010/63751.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['富源县考察团到罗平学习考察脱贫攻坚展览馆布展工作 - 县区动态 - 曲靖市人民政府门户网', '为全力推进富源城市展览馆布展工作顺利开展。9 月 26 日，富源县组织到罗平县学习考察脱贫攻坚展览馆布展工作。考察团在富源县委常委、县委办主任杨雄带领下，到罗平学习借鉴脱贫攻坚展览馆布展工作经验。罗平县委常委、县委办主任金书芳等领导陪同考察。', '考察团一行首先到罗平县城太液湖公园崇文阁脱贫攻坚展览馆实地考察了解。参观中，通过汇报影像资料、大量系列图文展及听取讲解人员介绍，全面了解罗平脱贫攻坚工作的经验和方法。随后召开座谈会，在座谈会上，罗平相关人员介绍脱贫攻坚展览馆建设过程。大家本着相互学习、相互借鉴的原则，对罗平脱贫攻坚展览馆布展工作中的好做法、经验和措施进行了深入细致地探讨与交流。', '通过到展览馆实地参观考察，交流座谈等方式，考察团认为罗平县在工作中思路清晰、责任压实、措施有力、工作扎实、成效明显，很多好经验和做法对富源的脱贫摘帽工作有很好的学习借鉴意义。纷纷表示，将以此次考察学习为契机，把罗平的好经验、好做法带回去，切实推进展览馆布展工作有序开展。（作者：李忠桥）', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>252</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>麻栗坡县组织到罗平县考察学习中小学党建和义务教育均衡发展工作</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2018-03-21</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2018/bmdt2_0321/57886.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['麻栗坡县组织到罗平县考察学习中小学党建和义务教育均衡发展工作 - 部门动态 - 曲靖市人民政府门户网', '3月18日至19日文山州麻栗坡县率组织部领导、教育工委所属党组书记和创建中小学校党建工作示范点党组书记，乡镇中心学校和部分中小学校校长，教育局领导及股室负责人等共50余人到罗平参观考察交流中小学党建和义务教育均衡发展等工作。', '考察学习内容包括学校党建工作及党建示范点创建工作情况，义务教育均衡发展县、乡和学校迎检组织及档案建设工作，校园文化建设和办学特色等方面的具体做法和经验。考察团先后到罗平县振兴小学、罗雄一中、大水井乡晨曦小学、板桥镇品德完小及长底民族中学等学校实地考察。每到一处，考察团成员边看边思边问边学，看到各所学校主题鲜明的校园文化，整洁优美的校园环境，内涵丰富的特色活动，各具特色的功能室布置，处处彰显着学校在义务教育均衡发展中特色和亮点，学校党建工作与教育教学深度融合等都给考察团留下了深刻的印象。', '在交流学习座谈会上，罗平县教育局向考察团介绍了全县中小学校党建工作基本情况、主要做法及特色亮点和义务教育均衡发展、学校管理经验、全面推进素质教育、全力促进教育改革等方面所开展的工作和取得的成效。考察学习人员详细了解党建工作及义务教育均衡发展工作情况，交流了学习心得，互相探讨了工作遇到的困难和存在的问题。', '通过考察学习，大家纷纷表示不虚此行，受益匪浅。回去后一定认真借鉴罗平的先进经验和成功做法，认真总结，查找问题与差距，扎实工作，全力推进义务教育均衡发展，确保顺利通过省级评估和国家评估认定。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>252</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>四川省德阳市工商局到曲靖市工商局考察学习深化商事制度改革加强事中事后监管工作</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2018-04-25</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2018/bmdt2_0425/59062.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['四川省德阳市工商局到曲靖市工商局考察学习深化商事制度改革 加强事中事后监管工作 - 部门动态 - 曲靖市人民政府门户网', '4月19日、20日，四川省德阳市工商局一行6人在唐俊副局长带领下，到曲靖市工商局考察学习深化商事制度改革，加强事中事后监管工作。考察组现场观看了曲靖市事中事后监管平台和曲靖市企业信用信息公示系统演示，听取了相关介绍，对平台的建设及功能发挥给予了高度评价，并就如何进一步深化拓展平台功能，加强事中事后监管与曲靖市工商局交流了经验。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>252</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>临沧市非公党委到宣威市考察学习非公党建工作</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2018-04-25</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2018/bmdt2_0425/59063.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['临沧市非公党委到宣威市考察学习非公党建工作 - 部门动态 - 曲靖市人民政府门户网', '4月12日，临沧市非公党委一行30余人在临沧市工商局孙灿副局长的带领下到宣威市学习考察非公党建工作，曲靖市工商局副调研员刘加升、宣威市人民政府副市长方国营陪同考察。 考察组一行先后参观了云南中宣液态金属科技有限公司、宣威市医药有限公司、宣威市非公党建活动中心，分别听取了两个公司负责人对企业党支部开展党建工作情况以及宣威市非公党委对党建工作的现状、主要做法和先进经验的详细介绍，并对非公党建工作进行了深入的交流讨论。 考察组对宣威市党群活动中心的建设以及宣威市非公党委抓非公党建的“1316”工作法则给予了高度的肯定和赞扬，并表示此次考察学习受益匪浅，对抓好临沧市非公党建工作具有很大的学习借鉴意义，他们会将好的做法和经验带回临沧，以促进临沧市的非公党建工作再上台阶。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>252</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>曲靖考察组赴遵义取经考察学习融资平台公司建设工作</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2017-10-20</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2017/bmdt2_1020/53537.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['曲靖考察组赴遵义取经 考察学习融资平台公司建设工作 - 部门动态 - 曲靖市人民政府门户网', '月16日至18日，由市发展改革委副主任林家德带队，市开发投资公司董事长杨国全、市投融资担保公司副董事长、总经理金国忠、市文旅投公司副总赵国聪、恒丰银行曲靖分行副行长刘鸿武等参与组成的考察组，专程赴贵州省遵义', '交旅集团公司、新区开发投资公司、投资集团公司、湘江投资建设公司等相关负责人，与曲靖市考察学习人员相互介绍了各自融资公司情况，交流了各自融资平台建设工作取得的经验，双方就融资平台建设的一些改革思路、方法及成效进行沟通探讨，取长补短，同促共进，促进融资平台建设工作健康发展。（通讯员：马彦）', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>252</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>迪庆州维西县文体广旅局赴曲考察学习</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2017-10-30</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2017/bmdt2_1030/53819.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['维西是全国唯一的傈僳族自治县，地处金沙江、澜沧江、怒江“三江并流”世界自然遗产标志性腹心地，是人间仙境“香格里拉”的重要组成部分。 根据云南省人民政府办公厅《关于认真做好加快迪庆州经济社会发展专题工作会议确定工作目标任务分解的通知》要求，我市对口帮扶迪庆州维西县。多年来，两地文化体育工作交流不断。 2017年10月28日，维西县文体广旅局由宋斌局长、和丽春书记带队，一行15人抵达曲靖市，在市文体局窦文孝副局长的陪同下，进行了为期两天的考察学习。考察组先后参观了曲靖市文化体育公园，“麒麟水乡高原农庄” 、罗平县文化中心和罗平农业旅游观光项目项目，全面了解了市图书馆、美术馆、博物馆、市科技馆、市体育中心、游泳馆等主要设施建设和运营情况。考察过程中，维西县文体广旅局重点听取曲靖市文化体育局关于公共文化服务体系建设、提升公共文化服务水平、精品文化旅游、文化产业、农旅融合发展等方面好的经验和做法，同时，对维西县的近年来文化、体育、农旅整合发展等工作进行了介绍和交流，双方表示，在下一步工作中，要加大交流帮扶力度，共同促进两地文化体育工作全面发展。', '市图书馆徐朝武书记介绍图书馆的建设和管理 在曲靖市科技馆参观学习 市博物馆的工作人员给考察团成员讲解 实地查看体育场地的维护和管理 与罗平县文体广旅局相互交流学习', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>252</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>马龙地税与考察学习的五华地税交流纳税人分类分级管理经验</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2017-08-07</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2017/bmdt2_0807/51339.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['马龙地税与考察学习的五华地税交流纳税人分类分级管理经验 - 部门动态 - 曲靖市人民政府门户网', '7月25日，五华区地方税务局副局长孙红德、纪检组长冯德清一行9人，到马龙区地方税务局考察学习纳税人分类分级管理工作经验，马龙区局领导，一分局、二分局局长，一所及相关股室参加了座谈。考察组一行听取了征纳股负责人对马龙地税纳税人分类分级管理工作运行模式和开展情况的介绍，并就马龙区国地税联合核定定额、调整定额、欠税管理、风险管理、缴费人专项管理、房土外部信息交换等方面提出疑问，相关业务部门就考察组提出的问题一一进行解答。', '2017年，马龙区地税局被确定为全市纳税人分类分级管理试点单位，自改革试点启动以来，马龙区地税局按照“机构不变、编制不增、整合岗位、统筹人员、细化职责”的工作思路，积极采取措施，扎实推进分类分级管理工作，在征管效率、风险管理、规费管理等方面已初见成效。 考察学习中，马龙区地税局与五华区地税局就各自在征收管理方面的好的经验方法进行交流学习，取长补短共同进步，以期在未来的工作中提升征管质效，更好地为纳税人提供服务。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>252</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>曲靖市水务局组织到大理昆明考察学习河长制工作</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2017-05-16</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2017/bmdt2_0516/47519.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['曲靖市水务局组织到大理昆明考察学习河长制工作 - 部门动态 - 曲靖市人民政府门户网', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>252</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>宣威朱党柱带队赴沾益区学习考察人居环境提升工作</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2017-08-02</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2017/xqdt2_0802/51183.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['宣威：朱党柱带队赴沾益区学习考察人居环境提升工作 - 县区动态 - 曲靖市人民政府门户网', '7月30日，曲靖市委常委、宣威市委书记朱党柱带队到沾益区学习考察城乡人居环境提升工作。他强调：要认真学习总结沾益区在城乡人居环境提升行动中的经验，结合我市实际情况，找差距，补好课，再加力，积极谋划，主动作为，确保我市城乡人居环境提升工作再上新台阶。宣威市委副书记、市长周云锋参加学习考察座谈会并讲话。', '30日上午，考察组参观了沾益区白水镇集镇建设、龙华东路外立面改造、肖金河河道治理、老城区治理、西河公园建设情况，详细了解沾益区人居环境提升工作开展情况。', '考察结束后，考察组回到我市召开学习考察座谈会。朱党柱指出，要认真学习沾益区贯彻落实上级部门工作部署的态度、把本地工作主动融入珠江源大城市建设的理念，找差距，补短板，添动力，把沾益区的做法贯穿于我市的工作当中，形成工作动力，推动城乡人居环境提升工作有新的进步。', '针对当前工作中存在的问题，周云锋要求：聚焦重点，攻坚克难。要把“两违”治理作为治乱工作的重中之重，在彻底治“乱”上下功夫；要把路域周边优化美化和环境提升作为治脏的重点，在全面治“脏”上下功夫；要把农村“两污”治理作为治污的重点，统一规划和建设垃圾处理设施，在农村治“污”上下功夫；要组织开展好城市道路交通秩序整治工作，在管理治“堵”上下功夫；提升城乡人居环境是一项长期的工作，要在建章立制上下功夫；积极探索“执法权限下沉”“领导挂钩包片”等做法，进一步分析成效，取长去短，不断提升城市管理水平，在严格执法上下功夫。 超前谋划，突出重点。加快推进城市棚户区改造，结合基础设施建设实施道路交通提升工程，结合国家级园林城市创建提升城乡绿色景观，深入推进“河长制”，加强河湖水系治理。 敢于担当，转变作风，搞好保障。进一步强化组织领导，统筹联动推进；进一步严格督查考核，促进工作落实；进一步强化培训，提升工作能力和水平；进一步注重宣传引导，营造浓厚氛围。各乡镇街道、市直各部门要认真按照市委、市政府的安排部署，拿出打大仗、打硬仗、打胜仗的决心和信心，真抓实干，攻坚克难，以高度负责的态度，鼓足干劲、改进作风，全力以赴为改善城乡面貌、提升人居环境努力工作，让宣威的山川更秀美、环境更优美、人民生活更美好！ 会上，宣威市副市长、市公安局局长杨枝梁做了表态发言，副市长方国营传达了曲靖市7月28日治脏治乱提升城乡人居环境现场观摩会会议精神并就下步工作进行了安排，人居办汇报了城乡人居环境提升工作存在的问题和下步工作打算。', '宣威市委常委、市委办主任王正力，市人大常委会副主任孔英，市政协副主席杨艳琼及各乡镇党委书记、各街道党工委书记、办事处主任、市财政局、市住建局、市交通运输局、市市场监管局、市城市综合执法局、市交警大队等部门负责人参加学习考察。（沈良斌 赵雄飞）', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>252</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>北海市科技局到我市考察学习农业科技创新及农业科技扶贫工作</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2017-04-27</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2017/bmdt2_0427/46819.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['北海市科技局到我市考察学习农业科技创新 及农业科技扶贫工作 - 部门动态 - 曲靖市人民政府门户网', '曲靖科技信息 第 二 十 二 期 云南省曲靖市科技局 二〇一七年四月二十五日 北海市科技局到我市考察学习农业科技创新 及农业科技扶贫工作 近日，北海市科技局一行12人到我市考察学习“花卉种植技术及农业科技扶贫”工作。曲靖市科技局，麒麟区科技局、麒麟区花卉站，沾益区、马龙区工信局等相关领导及专家参与接待。 考察团一行先后前往麒麟飞扬花卉专业合作社康乃馨种植基地、麒麟区嘉乐食用玫瑰种植基地、云南播乐庄园农业科技有限公司玫瑰种植加工基地、沾益区播乐玫瑰小镇产业扶贫项目基地进行了实地考察。 各基地负责人向考察团详细介绍了花卉种植技术、科技扶贫的措施和成效等情况。双方在随行交流时就如何提升农业科技创新能力、如何加快脱贫攻坚步伐、如何帮扶创业等工作进行了深入探讨。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>252</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>市新广局到浙江考察学习电子商务发展先进经验</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2017-04-01</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2017/bmdt2_0401/45237.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['市新广局到浙江考察学习电子商务发展先进经验 - 部门动态 - 曲靖市人民政府门户网', '为学习借鉴浙江在电子商务产业发展方面的成功经验，加快推进广电媒体电子商务产业发展，寻求产业转型升级新突破，3月29日至30日，市新广局组织电台、电视台、电视制作中心等相关人员到浙江义乌市、永康市考察学习电子商务发展先进经验。 考察组实地考察了义乌市青岩刘村、永康市五金城的电子商务发展情况，详细了解了当地电子商务发展定位、发展模式、电子商务平台建设。在青岩刘村，考察组一行先后走访了皓野农产品、义乌购、陶煲王、共济创客空间、农特小镇等多处商户和机构，现场观摩各电商操作流程，了解各类销售模式，听取了青岩刘村发展电子商务的经验介绍，并与部分电商公司负责人、机构人员围绕网店产品结构、市场营销、电子商务运营特点等问题进行了交流。在永康市五金城，参观了中国科技五金城集团“尚五金”电商平台和产品展示区，与“尚五金”运行平台负责人进行了座谈，就媒体与电商的合作点、结合点进行了深入细致的探讨，双方希望通过这次活动，两地能多做交流，共谋发展。电商“义乌购”、“尚五金”采取“实体店+网店”模式，打通“线下”与“线上”市场，推动专业市场与电子商务深度融合，创立自主品牌的电子商务发展经验做法使考察组成员深受启发。 通过考察开阔了眼界，增加了知识，学习了经济发达地区先进经验。大家表示要认真借鉴义乌、永康两地电子商务发展经验、经营理念，结合广电媒体实际，推动广电媒体电子商务发展和产业转型升级。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>252</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>曲靖市供销社赴昆明考察学习</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2017-03-13</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2017/bmdt2_0313/44333.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['3月7日，应昆明市供销合作社的邀请，曲靖市供销合作社机关相关同志在党委书记、主任李红琴的带领下，到嵩明县考察学习农民专业合作社建设。 考察人员一行实地参观了嵩明丰泽蔬菜种植专业合作社的生菜种植基地，听取了昆明市供销合作社、嵩明县供销合作社和嵩明丰泽蔬菜种植专业合作社领导的情况介绍。 曲靖市供销社主任李红琴与昆明市供销社主任张文俊就如何进一步深化供销社综合改革等问题进行了深入交流，参加考察的同志也与昆明市供销社对应业务同志进行了工作交流。 昆明市供销社主任张文俊对曲靖市供销社考察团表示欢迎，并在“三八妇女节”来临之际，对在场的女同志致以节日的良好祝福。曲靖市供销社主任李红琴表示，感谢昆明市供销社的邀请，昆明市供销社整体实力雄厚，特别是在农民专业合作社和城市消费合作社建设方面有许多值得曲靖市供销社学习借鉴的好经验，今后曲靖市社要与昆明市社加强工作联系，在省供销社的精心指导下，共同服务全省“三农”工作。（图文：经济发展科 屠永祥）', '考察人员一行实地参观了嵩明丰泽蔬菜种植专业合作社的生菜种植基地，听取了昆明市供销合作社、嵩明县供销合作社和嵩明丰泽蔬菜种植专业合作社领导的情况介绍。', '曲靖市供销社主任李红琴与昆明市供销社主任张文俊就如何进一步深化供销社综合改革等问题进行了深入交流，参加考察的同志也与昆明市供销社对应业务同志进行了工作交流。', '昆明市供销社主任张文俊对曲靖市供销社考察团表示欢迎，并在“三八妇女节”来临之际，对在场的女同志致以节日的良好祝福。曲靖市供销社主任李红琴表示，感谢昆明市供销社的邀请，昆明市供销社整体实力雄厚，特别是在农民专业合作社和城市消费合作社建设方面有许多值得曲靖市供销社学习借鉴的好经验，今后曲靖市社要与昆明市社加强工作联系，在省供销社的精心指导下，共同服务全省“三农”工作。（图文：经济发展科 屠永祥）', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>252</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>全市五大基础设施网络建设推进会参会人员到陆良县考察学习</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2015-12-21</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2015/xqdt2_1221/31384.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['全市五大基础设施网络建设推进会参会人员到陆良县考察学习 - 县区动态 - 曲靖市人民政府门户网', '12月2号，市委、市政府四班子主要领导率全市五大基础设施网络建设推进会参会人员到陆良县考察学习。 市委书记李文荣、市委副书记、市长董保同、市委副书记刘立志、市人大常委会主任刘海芳、市政协主席赵建华一行，实地考察学习了陆良县小百户镇恨虎坝中型灌区创新机制试点、冬春农田水利建设现场、青山工业园区及110千伏吉冲变电站，并认真听取陆良县委副书记、县长张光彦以及各项目主要负责人的相关工作情况汇报，详细了解陆良县水利基础设施和电力基础设施建设情况。 近年来，陆良县全面实施“产业强县、开放活县、科教兴县、依法治县”发展战略，凝心聚力，真抓实干，建成了一批放心工程、效益工程、实惠工程，全县经济社会持续健康发展。其中，小百户镇恨虎坝中型灌区创新机制试点自运营以来，亩均年收入为9300元，亩均纯收入增加1777元，减少灌溉用水成本387元，实现了政府、企业、群众三方共赢，并逐步为解决农田水利“最后一公里”问题探索了可复制、可推广的经验。在电力基础设施建设方面，我县110千伏吉冲变电站项目已完成配电室、主控楼及设备安装土建工程，计划明年3月竣工，项目建成后，将有效满足县城西片区和青山工业园区新增负荷用电需求。 实地考察中，李文荣、董保同等主要领导对陆良县在五大基础设施网络建设工作中取得的成绩给予了充分肯定。李文荣要求，陆良县要把水利改革发展作为事关全局和长远发展的基础性、战略性工作，在全县积极推广改革试点经验，大干快上水利基础设施建设，着力建设一批规模化、集约化、高效化现代农业示范区；要始终把农业产业作为全县经济社会发展的基础性产业，放在优先发展的战略地位，不断在稳增长、调结构、促改革、惠民生上下功夫，努力做好农业改革这篇大文章，并通过农业发展带动一、二、三产联动发展，促进全县经济社会健康快速发展；要抓住冬春水利建设的有利时机，多方整合项目、资金，加快推进大中型骨干排灌设施建设改造工程。同时，要兼顾快速发展与基础设施建设相滞后的实际情况，以水电路气房等基础设施建设为重点，结合“十三五”规划，稳步推进“五网”基础设施建设，全力改善群众生产生活条件。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>252</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>孙燕副厅长带队赴四川省学习考察电子商务进农村综合示范工作</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2016-11-30</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2016/bmdt2_1130/40963.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['孙燕副厅长带队赴四川省学习考察电子商务进农村综合示范工作 - 部门动态 - 曲靖市人民政府门户网', '11月16日～19日，由省商务厅副厅长孙燕带队，全省14个国家级、省级电子商务进农村示范（试点）县政府分管领导以及州市商务局、市场建设处主要负责同志组成的学习考察组，赴四川省资中、仁寿两地考察学习了电子商务进农村综合示范工作。 赴资中县期间，考察组一行参观考察了资中县电子商务进农村电商集中发展区、双河镇“京东帮”电商服务站、银山镇平安寨村级电商服务点等县、乡、村三级电子商务进农村公共服务中心（站点），学习了解县级公共服务中心“电商平台本土化、服务功能集成化、物流配送一体化、培训孵化链条化、政务服务系统化”的五位一体建设模式和全县实施的“一十百千万工程”发展模式。 赴仁寿县期间，考察组一行参观考察了仁寿县“赶场小站”县级电子商务进农村运营中心、县级京东电子商务服务中心、县级电子商务创新创业中心、电子商务产业园IBM卓越云计算中心，并赴曹家镇“赶场小站”、文林镇叶桥村“赶场小站”等乡、村两级服务站点进行了参观考察。 实地考察结束后，考察组应邀到四川省商务厅召开学习考察经验交流座谈会。座谈中，孙燕副厅长表示，考察组将把在四川省学习考察期间学到的新思维、新理念、新模式和做法带回云南，结合实际，继续指导推进全省电子商务进农村综合示范工作，争取在推动和促进农村现代流通体系建设上有新的突破，走出一条既符合云南实际，又具有云南特色的电子商务进农村的路子。 曲靖市商务局局长金云权、富源县商务局局长贺德春参与学习考察。 （据省商务厅网站）', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>云南省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>252</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>曲靖市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>青海蔬菜考察团到麒麟区考察学习蔬菜产业</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2016-08-02</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.qj.gov.cn/html/2016/xqdt2_0802/37357.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['7月21日，青海省农业技术推广总站组织蔬菜骨干人员一行24人到我区参观、考察、学习蔬菜产业。 在省农业技术推广总站、市农业局、区经作中心相关领导的陪同下，考察团一行首先听取了麒麟区外销蔬菜发展情况的汇报，随后，实地参观了堂生蔬菜种植专业合作社、曲靖市绿联高新农业有限公司、乐颐果菜公司大棚蔬菜种植基地、冷藏保鲜库等，并向区蔬菜站技术人员、企业负责人详细了解了蔬菜种植品种、生产技术流程和经营管理方式，就蔬菜种植技术经验、农业基础设施建设、基地管理等方面进行了深入的交流。通过听取汇报和实地了解，青海省蔬菜考察团对麒麟区蔬菜产业发展工作给予了高度评价，一致认为麒麟区蔬菜生产规模大、种植品种较多、标准化程度高、生产效益突出、基础设施优良，特别是发展外销蔬菜的先进经验和做法非常值得借鉴学习。考察团表示，此次考察学习收获较多，回去后将结合本地的特点,将学习到的好经验、好做法融会贯通,创造性地开展工作。 近年来，麒麟区紧紧抓住云南省加快高原特色农业发展机遇，严格按照“扩大规模，提升品质，培育品牌、提高效益”的思路，立足资源优势，突出地方特色，狠抓蔬菜产业发展。全区建成商品蔬菜基地10万亩，认定无公害蔬菜基地6万亩，认证无公害蔬菜产品29个，区域内引进和培育有蔬菜龙头企业及专业合作社16家，拥有总库容8000立方米蔬菜冷库5座，建有加工能力3500公斤/小时的速冻加工生产线3条，速冻蔬菜、鲜菜产品畅销国内沿海、香港、日本、德国、法国等地区和国家。', '国务院部门网站 外交部 国防部 国家发展和改革委员会 教育部 科学技术部 工业和信息化部 国家民族事务委员会 公安部 国家安全部 民政部 司法部 财政部 人力资源和社会保障部 自然资源部 生态环境部 住房和城乡建设部 交通运输部 水利部 农业农村部 商务部 文化和旅游部 国家卫生健康委员会 退役军人事务部 应急管理部 人民银行 审计署 国家语言文字工作委员会 国家外国专家局 国家航天局 国家原子能机构 国家海洋局 国家核安全局 国务院国有资产监督管理委员会 海关总署 国家税务总局 国家市场监督管理总局 国家广播电视总局 国家体育总局 国家统计局 国家国际发展合作署 国家医疗保障局 国务院参事室 国家机关事务管理局 国家认证认可监督管理委员会 国家标准化管理委员会 国家新闻出版署（国家版权局） 国家宗教事务局 国务院港澳事务办公室 国务院研究室 国务院侨务办公室 国务院台湾事务办公室 国家互联网信息办公室 国务院新闻办公室 新华通讯社 中国科学院 中国社会科学院 中国工程院 国务院发展研究中心 中央广播电视总台 中国气象局 中国银行保险监督管理委员会 中国证券监督管理委员会 国家行政学院 国家信访局 国家粮食和物资储备局 国家能源局 国家国防科技工业局 国家烟草专卖局 国家移民管理局 国家林业和草原局 国家铁路局 中国民用航空局 国家邮政局 国家文物局 国家中医药管理局 国家矿山安全监察局 国家外汇管理局 国家药品监督管理局 国家知识产权局 出入境管理局 国家公园管理局 国家公务员局 国家档案局 国家保密局 国家密码管理局', '各省市政府网站 北京 天津 河北 山西 内蒙古 辽宁 吉林 黑龙江 上海 江苏 浙江 安徽 福建 江西 山东 河南 湖北 湖南 广东 广西 海南 重庆 四川 贵州 云南 西藏 陕西 甘肃 青海 宁夏 新疆 香港 澳门 台湾 新疆生产建设兵团', '州市政府网站 昆明市政府 昭通市政府 曲靖市政府 玉溪市政府 保山市政府 楚雄州政府 红河州政府 文山州政府 普洱市政府 西双版纳州政府 大理州政府 德宏州政府 丽江市政府 怒江州政府 迪庆州政府 临沧市政府', '市政府部门网站 曲靖市教育体育局 信用中国（云南曲靖） 曲靖市生态环境局 曲靖市人力资源和社会保障局 曲靖市财政局']</t>
         </is>
